--- a/MD/04 NetCore源码解读/总结.xlsx
+++ b/MD/04 NetCore源码解读/总结.xlsx
@@ -3884,7 +3884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4092,31 +4092,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4125,29 +4131,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4155,8 +4149,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5520,8 +5526,8 @@
   <sheetPr/>
   <dimension ref="B4:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="B48:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5765,150 +5771,150 @@
       <c r="C29" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="71" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" ht="81" spans="2:4">
-      <c r="B30" s="71"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="2:4">
-      <c r="B31" s="71"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="73"/>
+      <c r="D31" s="74"/>
     </row>
     <row r="32" ht="21" customHeight="1" spans="2:4">
-      <c r="B32" s="71"/>
-      <c r="C32" s="74" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="2:4">
-      <c r="B33" s="71"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="65" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" ht="44.1" customHeight="1" spans="2:4">
-      <c r="B34" s="71"/>
-      <c r="C34" s="76" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" ht="41.1" customHeight="1" spans="2:4">
-      <c r="B35" s="71"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="65" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="71"/>
-      <c r="C36" s="78" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="79"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" ht="67.5" spans="2:4">
-      <c r="B37" s="71"/>
-      <c r="C37" s="80" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="79"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="71"/>
-      <c r="C38" s="81" t="s">
+      <c r="B38" s="72"/>
+      <c r="C38" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="34" t="s">
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" ht="189" spans="2:4">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="79"/>
+      <c r="D40" s="81"/>
     </row>
     <row r="41" ht="216" spans="2:4">
-      <c r="B41" s="85"/>
-      <c r="C41" s="86" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="79"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" ht="27" spans="2:4">
-      <c r="B42" s="85"/>
-      <c r="C42" s="86" t="s">
+      <c r="B42" s="72"/>
+      <c r="C42" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="79"/>
+      <c r="D42" s="81"/>
     </row>
     <row r="43" ht="121.5" spans="2:4">
-      <c r="B43" s="87"/>
-      <c r="C43" s="86" t="s">
+      <c r="B43" s="83"/>
+      <c r="C43" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="79"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" ht="27" spans="2:4">
       <c r="B44" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="81"/>
     </row>
     <row r="45" ht="202.5" spans="2:4">
-      <c r="B45" s="71"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="72"/>
+      <c r="C45" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="81"/>
     </row>
     <row r="46" ht="81" spans="2:4">
-      <c r="B46" s="71"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="81"/>
     </row>
     <row r="47" ht="81" spans="2:4">
-      <c r="B47" s="82"/>
-      <c r="C47" s="30" t="s">
+      <c r="B47" s="83"/>
+      <c r="C47" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="81"/>
     </row>
     <row r="48" ht="40.5" spans="2:4">
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="86" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -5919,7 +5925,7 @@
       </c>
     </row>
     <row r="49" ht="148.5" spans="2:4">
-      <c r="B49" s="89"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="25" t="s">
         <v>81</v>
       </c>
@@ -5928,14 +5934,14 @@
       </c>
     </row>
     <row r="50" ht="40.5" spans="2:4">
-      <c r="B50" s="89"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" ht="270" spans="2:4">
-      <c r="B51" s="89"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="30" t="s">
         <v>84</v>
       </c>
@@ -5944,87 +5950,87 @@
       </c>
     </row>
     <row r="52" ht="121.5" spans="2:4">
-      <c r="B52" s="89"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D52" s="24"/>
     </row>
     <row r="53" ht="67.5" spans="2:4">
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="89" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" ht="148.5" spans="2:4">
-      <c r="B54" s="71"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D54" s="24"/>
     </row>
     <row r="55" ht="27" spans="2:4">
-      <c r="B55" s="71"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D55" s="21"/>
     </row>
     <row r="56" ht="108" spans="2:4">
-      <c r="B56" s="71"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="24"/>
     </row>
     <row r="57" ht="162" spans="2:4">
-      <c r="B57" s="82"/>
+      <c r="B57" s="91"/>
       <c r="C57" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="24"/>
+      <c r="D58" s="81"/>
     </row>
     <row r="59" ht="50.1" customHeight="1" spans="2:4">
       <c r="B59" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C59" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="92" t="s">
+      <c r="D59" s="94" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" ht="50.1" customHeight="1" spans="2:4">
       <c r="B60" s="52"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="92" t="s">
+      <c r="C60" s="95"/>
+      <c r="D60" s="94" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" ht="114" customHeight="1" spans="2:4">
       <c r="B61" s="52"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="94" t="s">
+      <c r="C61" s="95"/>
+      <c r="D61" s="96" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" ht="50.1" customHeight="1" spans="2:4">
       <c r="B62" s="32"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="92" t="s">
+      <c r="C62" s="97"/>
+      <c r="D62" s="94" t="s">
         <v>100</v>
       </c>
     </row>
